--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 20202.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,42 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
   </si>
 </sst>
 </file>
@@ -522,19 +486,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>83.33</v>
+        <v>97.22</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,19 +512,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,19 +538,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,19 +564,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>82.5</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,19 +590,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>82.61</v>
+        <v>91.3</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -720,19 +684,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>83.33</v>
+        <v>97.22</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -746,19 +710,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -772,19 +736,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -798,19 +762,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>82.5</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -824,19 +788,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>82.61</v>
+        <v>91.3</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -918,19 +882,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>83.33</v>
+        <v>97.22</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -944,19 +908,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>83.87</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -970,19 +934,19 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>80.95</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -996,19 +960,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>82.5</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1022,19 +986,19 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>82.61</v>
+        <v>91.3</v>
       </c>
       <c r="H6">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1070,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1103,98 +1067,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920325</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920061</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 20202.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 20202.xlsx
@@ -7,17 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Estadisticos 1P" sheetId="1" r:id="rId1"/>
-    <sheet name="Estadisticos 2P" sheetId="2" r:id="rId2"/>
-    <sheet name="Estadisticos Final" sheetId="3" r:id="rId3"/>
-    <sheet name="Rescatables" sheetId="4" r:id="rId4"/>
+    <sheet name="Estadisticos Final" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Mat</t>
   </si>
@@ -65,24 +62,6 @@
   </si>
   <si>
     <t>6ALCV</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Paterno</t>
-  </si>
-  <si>
-    <t>Materno</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Nombre_Largo</t>
-  </si>
-  <si>
-    <t>Reprobadas</t>
   </si>
 </sst>
 </file>
@@ -498,7 +477,7 @@
         <v>97.22</v>
       </c>
       <c r="H2">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,7 +503,7 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -550,7 +529,7 @@
         <v>95.23999999999999</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -602,7 +581,7 @@
         <v>91.3</v>
       </c>
       <c r="H6">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -628,443 +607,7 @@
         <v>96</v>
       </c>
       <c r="H7">
-        <v>7.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>97.22</v>
-      </c>
-      <c r="H2">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>95.23999999999999</v>
-      </c>
-      <c r="H4">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>91.3</v>
-      </c>
-      <c r="H6">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>96</v>
-      </c>
-      <c r="H7">
-        <v>7.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-      <c r="G2">
-        <v>97.22</v>
-      </c>
-      <c r="H2">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>95.23999999999999</v>
-      </c>
-      <c r="H4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>91.3</v>
-      </c>
-      <c r="H6">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>96</v>
-      </c>
-      <c r="H7">
         <v>7.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
